--- a/Resultados/Mercado mundial - Garbanzos secos.xlsx
+++ b/Resultados/Mercado mundial - Garbanzos secos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="India" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Australia" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Russian Federation" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Ethiopia" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Australia" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Federación de Rusia" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Etiopía" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -570,18 +570,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Exportaciones (Miles de Toneladas)</a:t>
+              <a:t>Exportaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -596,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -639,7 +639,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -652,18 +652,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Importaciones (Miles de Toneladas)</a:t>
+              <a:t>Importaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -678,21 +678,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$22</f>
+              <f>'Países importadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$22</f>
+              <f>'Países importadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -721,7 +721,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'India'!$B$12:$B$73</f>
+              <f>'India'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'India'!$C$12:$C$73</f>
+              <f>'India'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Australia'!$B$12:$B$73</f>
+              <f>'Australia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Australia'!$C$12:$C$73</f>
+              <f>'Australia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Türkiye'!$B$12:$B$73</f>
+              <f>'Türkiye'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Türkiye'!$C$12:$C$73</f>
+              <f>'Türkiye'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Russian Federation'!$B$12:$B$73</f>
+              <f>'Federación de Rusia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Russian Federation'!$C$12:$C$73</f>
+              <f>'Federación de Rusia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Ethiopia'!$B$12:$B$73</f>
+              <f>'Etiopía'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Ethiopia'!$C$12:$C$73</f>
+              <f>'Etiopía'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>14096756</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1.1717</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>16517592.32</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1.1717</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2834745.36</v>
@@ -2160,10 +2160,10 @@
         <v>14722366</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1.2168</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>17914426.63</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1.2168</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1920282.1</v>
@@ -2182,10 +2182,10 @@
         <v>13993910</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1.1246</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>15737437.64</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1.1246</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1912504.36</v>
@@ -2204,10 +2204,10 @@
         <v>13501471</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1.1128</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>15024278.11</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1.1128</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1926329.94</v>
@@ -2226,10 +2226,10 @@
         <v>13842429</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1.0273</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>14220781.65</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1.0273</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>2160903.28</v>
@@ -2248,10 +2248,10 @@
         <v>16188524</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1.0463</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>16937880.48</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1.0463</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2060263.36</v>
@@ -2270,10 +2270,10 @@
         <v>14567096</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1.0402</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>15152266.12</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1.0402</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>3361667.06</v>
@@ -2292,10 +2292,10 @@
         <v>12936948</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>0.897</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>11604334.31</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>0.897</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2034468.65</v>
@@ -2314,10 +2314,10 @@
         <v>11775828</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>0.9254</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>10897155.5</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>0.9254</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1794935.67</v>
@@ -2336,10 +2336,10 @@
         <v>13736839</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>0.9685</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>13303958.95</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>0.9685</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1419243.77</v>
@@ -2358,10 +2358,10 @@
         <v>12434651</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.0485</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>13038219.16</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.0485</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1614119.8</v>
@@ -2380,10 +2380,10 @@
         <v>12369037</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>0.9402999999999999</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>11630711.79</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>0.9402999999999999</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1454960</v>
@@ -2402,10 +2402,10 @@
         <v>12809877</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>11721521.73</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>0.915</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1116913</v>
@@ -2424,10 +2424,10 @@
         <v>12011683</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>0.9022</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>10836652.1</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>0.9022</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1031403</v>
@@ -2446,10 +2446,10 @@
         <v>11552815</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>0.9017000000000001</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>10416680.19</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>0.9017000000000001</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1140683</v>
@@ -2468,10 +2468,10 @@
         <v>11069550</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>0.7788999999999999</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>8621557.970000001</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>0.7788999999999999</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>997260</v>
@@ -2490,10 +2490,10 @@
         <v>11266332</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>0.8651</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>9746059.25</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>0.8651</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>893178</v>
@@ -2512,10 +2512,10 @@
         <v>10540344</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>0.8072</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>8508541.17</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>0.8072</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>782393</v>
@@ -2534,10 +2534,10 @@
         <v>10196955</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>0.8292</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>8455058.65</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>0.8292</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>832377</v>
@@ -2556,10 +2556,10 @@
         <v>10442336</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>0.8038999999999999</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>8394502.779999999</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>0.8038999999999999</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>740935</v>
@@ -2578,10 +2578,10 @@
         <v>9633371</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.7379</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>7108461.11</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>0.7379</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>922787</v>
@@ -2600,10 +2600,10 @@
         <v>10384946</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.798</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>8287104.42</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.798</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>860172</v>
@@ -2622,10 +2622,10 @@
         <v>9509456</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>0.7393</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>7030615.55</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>0.7393</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1118319.84</v>
@@ -2644,10 +2644,10 @@
         <v>10164905</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>0.7906</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>8036706.32</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>0.7906</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>615574.04</v>
@@ -2666,10 +2666,10 @@
         <v>12200211</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>0.7757999999999999</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>9465522.029999999</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>0.7757999999999999</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>413163.88</v>
@@ -2688,10 +2688,10 @@
         <v>11436458</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>0.7757000000000001</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>8871521.01</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>0.7757000000000001</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>511832.46</v>
@@ -2710,10 +2710,10 @@
         <v>10803334</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>0.7721</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>8341432.12</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>0.7721</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>848702.91</v>
@@ -2732,10 +2732,10 @@
         <v>11431492</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.7096</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>8111609.52</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.7096</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>578952.4</v>
@@ -2754,10 +2754,10 @@
         <v>11448410</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.8012999999999999</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>9173281.73</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.8012999999999999</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>303091</v>
@@ -2776,10 +2776,10 @@
         <v>9975485</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.7166</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>7148325.26</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.7166</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>468095</v>
@@ -2798,10 +2798,10 @@
         <v>10091220</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.669</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>6751374.45</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.669</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>641159</v>
@@ -2820,10 +2820,10 @@
         <v>9250066</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.7186</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>6647265.75</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.7186</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>461463</v>
@@ -2842,10 +2842,10 @@
         <v>11432293</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.7102000000000001</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>8119280.13</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.7102000000000001</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>468948</v>
@@ -2864,10 +2864,10 @@
         <v>9925771</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.6838</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>6786780</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.6838</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>426986</v>
@@ -2886,10 +2886,10 @@
         <v>9901303</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.7247</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>7175739</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.7247</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>350953</v>
@@ -2908,10 +2908,10 @@
         <v>8785519</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.6566000000000001</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>5768625</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.6566000000000001</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>491508</v>
@@ -2930,10 +2930,10 @@
         <v>10206714</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.6726</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>6865382</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.6726</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>404556</v>
@@ -2952,10 +2952,10 @@
         <v>10847951</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.7455000000000001</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>8086802</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.7455000000000001</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>218833</v>
@@ -2974,10 +2974,10 @@
         <v>9827587</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.6571</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>6457971</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.6571</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>166849</v>
@@ -2996,10 +2996,10 @@
         <v>9852148</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.6706</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>6606876</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.6706</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>165412</v>
@@ -3018,10 +3018,10 @@
         <v>10035450</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.7041000000000001</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>7066256</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.7041000000000001</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>176055</v>
@@ -3040,10 +3040,10 @@
         <v>10303582</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.5982000000000001</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>6164000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.5982000000000001</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>150795</v>
@@ -3062,10 +3062,10 @@
         <v>8942942</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>5768235</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.645</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>137604</v>
@@ -3084,10 +3084,10 @@
         <v>9631007</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>4854451</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.504</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>113868</v>
@@ -3106,10 +3106,10 @@
         <v>10512032</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.7218</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>7587409</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.7218</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>142254</v>
@@ -3128,10 +3128,10 @@
         <v>10561521</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.6771</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>7151077</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.6771</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>111018</v>
@@ -3150,10 +3150,10 @@
         <v>10557011</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.6814</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>7193607</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.6814</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>84293</v>
@@ -3172,10 +3172,10 @@
         <v>10803364</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.6876</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>7428020</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.6876</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>75965</v>
@@ -3194,10 +3194,10 @@
         <v>9487128</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>5605989</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.5909</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>73159</v>
@@ -3216,10 +3216,10 @@
         <v>10573811</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.5649</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>5972643</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.5649</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>70140</v>
@@ -3238,10 +3238,10 @@
         <v>9611543</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.6451</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>6200052</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.6451</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>94903</v>
@@ -3260,10 +3260,10 @@
         <v>10484311</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.6406000000000001</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>6716184</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.6406000000000001</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>92227</v>
@@ -3282,10 +3282,10 @@
         <v>10215958</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.6472</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>6611310</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.6472</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>72945</v>
@@ -3304,10 +3304,10 @@
         <v>10199553</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.6957000000000001</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>7096114</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.6957000000000001</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>73947</v>
@@ -3326,10 +3326,10 @@
         <v>9579256</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.6139</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>5880415</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.6139</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>57058</v>
@@ -3348,10 +3348,10 @@
         <v>10915194</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.6894</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>7525108</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.6894</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>43699</v>
@@ -3370,10 +3370,10 @@
         <v>10758567</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.4917</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>5290391</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.4917</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>52642</v>
@@ -3391,10 +3391,10 @@
         <v>10513391</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.5405</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>5682250</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.5405</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>56820</v>
@@ -3412,10 +3412,10 @@
         <v>11512462</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.6387999999999999</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>7354357</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.6387999999999999</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>69820</v>
@@ -3433,10 +3433,10 @@
         <v>11898941</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.5058</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>6018047</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.5058</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>43628</v>
@@ -3454,10 +3454,10 @@
         <v>11825548</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.5858</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>6926985</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.5858</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>33580</v>
@@ -3475,10 +3475,10 @@
         <v>12188797</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.5955</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>7258871</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.5955</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>44957</v>
@@ -3496,10 +3496,10 @@
         <v>11836682</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>7681851</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.649</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>48262</v>
@@ -3786,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3924,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Federación de Rusia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Etiopía</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3966,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Pakistán</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Iran (Islamic Republic of)</t>
+          <t>Irán (República Islámica del)</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4008,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4116,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4229,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Federación de Rusia</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4271,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>United Republic of Tanzania</t>
+          <t>República Unida de Tanzanía</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4313,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Sudán</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4327,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Emiratos Árabes Unidos</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4341,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4537,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Pakistán</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4689,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Emiratos Árabes Unidos</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4731,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Argelia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Arabia Saudita</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4932,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5011,10 @@
         <v>10470862</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1.1716</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>12267289.55</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1.1716</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>223839.99</v>
@@ -5033,10 +5033,10 @@
         <v>10740100</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1.261</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>13543630</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1.261</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>82845.89</v>
@@ -5055,10 +5055,10 @@
         <v>9995920</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1.1916</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>11911180</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1.1916</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>238620.24</v>
@@ -5077,10 +5077,10 @@
         <v>9698750</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1.1423</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>11078500</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1.1423</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>305841.17</v>
@@ -5099,10 +5099,10 @@
         <v>9547030</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1.041</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>9937990</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1.041</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>371883.44</v>
@@ -5121,10 +5121,10 @@
         <v>10560430</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1.0775</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>11379190</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1.0775</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>199771.47</v>
@@ -5143,10 +5143,10 @@
         <v>9626160</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>0.9742000000000001</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>9377560</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>0.9742000000000001</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1553069.31</v>
@@ -5165,10 +5165,10 @@
         <v>8399000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>0.8402999999999999</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>7058000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>0.8402999999999999</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>873541.9</v>
@@ -5187,10 +5187,10 @@
         <v>8251000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>0.8886000000000001</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>7332000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>0.8886000000000001</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>688125.35</v>
@@ -5209,10 +5209,10 @@
         <v>9927000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>9530000</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>0.96</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>381313.85</v>
@@ -5231,10 +5231,10 @@
         <v>8522000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.0364</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>8832500</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.0364</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>538329</v>
@@ -5253,10 +5253,10 @@
         <v>8320000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>0.9255</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>7700000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>0.9255</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>471974</v>
@@ -5275,10 +5275,10 @@
         <v>9190000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>0.8945</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>8220000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>0.8945</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>142776</v>
@@ -5297,10 +5297,10 @@
         <v>8170000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>0.9155</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>7480000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>0.9155</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>56211</v>
@@ -5319,10 +5319,10 @@
         <v>7890000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>0.8947999999999999</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>7060000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>0.8947999999999999</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>338391</v>
@@ -5341,10 +5341,10 @@
         <v>7543700</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>5748600</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>0.762</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>198215</v>
@@ -5363,10 +5363,10 @@
         <v>7493900</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>0.8452000000000001</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>6333700</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>0.8452000000000001</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>145605</v>
@@ -5385,10 +5385,10 @@
         <v>6896200</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>0.8085</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>5575400</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>0.8085</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>127318</v>
@@ -5407,10 +5407,10 @@
         <v>6714600</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>0.8146</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>5469400</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>0.8146</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>281756</v>
@@ -5429,10 +5429,10 @@
         <v>7048100</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>0.8112</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>5717500</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>0.8112</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>132518</v>
@@ -5451,10 +5451,10 @@
         <v>5906400</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.7172999999999999</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>4236800</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>0.7172999999999999</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>259239</v>
@@ -5473,10 +5473,10 @@
         <v>6416200</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>5473000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.853</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>217553</v>
@@ -5495,10 +5495,10 @@
         <v>5185300</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>0.7435</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>3855400</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>0.7435</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>516819</v>
@@ -5517,10 +5517,10 @@
         <v>6146300</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>0.8327</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>5118100</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>0.8327</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>63976</v>
@@ -5539,10 +5539,10 @@
         <v>8469100</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>6800700</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>0.803</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>11025.03</v>
@@ -5561,10 +5561,10 @@
         <v>7563200</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>0.8108</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>6132200</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>0.8108</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>110132</v>
@@ -5583,10 +5583,10 @@
         <v>6846700</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>0.8129</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>5565900</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>0.8129</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>380867</v>
@@ -5605,10 +5605,10 @@
         <v>7116000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.6997000000000001</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>4979000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.6997000000000001</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>122061</v>
@@ -5627,10 +5627,10 @@
         <v>7543000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.8532000000000001</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>6435500</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.8532000000000001</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>13662</v>
@@ -5649,10 +5649,10 @@
         <v>6358900</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.7833</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>4980800</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.7833</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>58127</v>
@@ -5671,10 +5671,10 @@
         <v>6453700</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.6844</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>4416700</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.6844</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>150181</v>
@@ -5693,10 +5693,10 @@
         <v>5579900</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.7385</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>4121000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.7385</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>77012</v>
@@ -5715,10 +5715,10 @@
         <v>7521300</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.7122000000000001</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>5356400</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.7122000000000001</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>98751</v>
@@ -5737,10 +5737,10 @@
         <v>6470500</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.6517999999999999</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>4217300</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.6517999999999999</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>160116</v>
@@ -5759,10 +5759,10 @@
         <v>6809500</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.7532000000000001</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>5129100</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.7532000000000001</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>66989</v>
@@ -5781,10 +5781,10 @@
         <v>5767000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.6287</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>3625500</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.6287</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>216734</v>
@@ -5803,10 +5803,10 @@
         <v>6983600</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.6489</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>4531800</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.6489</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>229881</v>
@@ -5825,10 +5825,10 @@
         <v>7804500</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.7416</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>5787900</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.7416</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>16623</v>
@@ -5847,10 +5847,10 @@
         <v>6904200</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.6607000000000001</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>4561400</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.6607000000000001</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>26600</v>
@@ -5869,10 +5869,10 @@
         <v>7161000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.6633</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>4750000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.6633</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>2728</v>
@@ -5891,10 +5891,10 @@
         <v>7398900</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>5289900</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.715</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>3844</v>
@@ -5913,10 +5913,10 @@
         <v>7868100</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>4642100</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.59</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1867</v>
@@ -5935,10 +5935,10 @@
         <v>6584100</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.6573</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>4328000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.6573</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>3733</v>
@@ -5957,10 +5957,10 @@
         <v>6985000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.4805</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>3356300</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.4805</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>7556</v>
@@ -5979,10 +5979,10 @@
         <v>7708000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.7445000000000001</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>5738800</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.7445000000000001</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>3347</v>
@@ -6001,10 +6001,10 @@
         <v>7973700</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.6784</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>5409500</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.6784</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>3018</v>
@@ -6023,10 +6023,10 @@
         <v>7974100</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.6802</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>5424300</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.6802</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1367</v>
@@ -6045,10 +6045,10 @@
         <v>8320100</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.7067</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>5879500</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.7067</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>201</v>
@@ -6067,10 +6067,10 @@
         <v>7041600</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.5702</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>4014800</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.5702</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>255</v>
@@ -6089,10 +6089,10 @@
         <v>7761000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.5282</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>4099000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.5282</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>384</v>
@@ -6111,10 +6111,10 @@
         <v>6967500</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.6511</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>4536800</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.6511</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1355</v>
@@ -6133,10 +6133,10 @@
         <v>7912400</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.6421</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>5080700</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.6421</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>99</v>
@@ -6155,10 +6155,10 @@
         <v>7838700</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.6633</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>5199200</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.6633</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>858</v>
@@ -6177,10 +6177,10 @@
         <v>7751500</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.7153999999999999</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>5545600</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.7153999999999999</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>891</v>
@@ -6199,10 +6199,10 @@
         <v>7105500</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.6065</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>4309500</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.6065</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>785</v>
@@ -6221,10 +6221,10 @@
         <v>8256700</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.7232000000000001</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>5971500</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.7232000000000001</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>185</v>
@@ -6243,10 +6243,10 @@
         <v>8003200</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.4526</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>3622000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.4526</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>290</v>
@@ -6264,10 +6264,10 @@
         <v>8015000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>4224000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.527</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>200</v>
@@ -6285,10 +6285,10 @@
         <v>8870000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.6513</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>5777000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.6513</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>335</v>
@@ -6306,10 +6306,10 @@
         <v>9354000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.4813</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>4502000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.4813</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>18</v>
@@ -6327,10 +6327,10 @@
         <v>9193000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.5832999999999999</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>5362000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.5832999999999999</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6348,10 +6348,10 @@
         <v>9566000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.6047</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>5785000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.6047</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6369,10 +6369,10 @@
         <v>9276000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.6738</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>6250000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.6738</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6708,7 +6708,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6787,10 +6787,10 @@
         <v>283303</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3.3017</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>935390</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>3.3017</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>218.68</v>
@@ -6809,10 +6809,10 @@
         <v>615750</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1.7251</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1062250</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1.7251</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>167.62</v>
@@ -6831,10 +6831,10 @@
         <v>606316</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1.4456</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>876468.13</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1.4456</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>122.3</v>
@@ -6853,10 +6853,10 @@
         <v>263000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1.0692</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>281200</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1.0692</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>149.01</v>
@@ -6875,10 +6875,10 @@
         <v>293947</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>0.6978</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>205130</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>0.6978</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>241.6</v>
@@ -6897,10 +6897,10 @@
         <v>1075136</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>0.9285</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>998231</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>0.9285</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>232.11</v>
@@ -6919,10 +6919,10 @@
         <v>1069000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1.8746</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2004000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1.8746</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>199.05</v>
@@ -6941,10 +6941,10 @@
         <v>1095599</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1.205</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1320200</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1.205</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>414.51</v>
@@ -6963,10 +6963,10 @@
         <v>468000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1.2685</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>593680</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1.2685</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>453.76</v>
@@ -6985,10 +6985,10 @@
         <v>507800</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1.2395</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>629400</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1.2395</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>400.14</v>
@@ -7007,10 +7007,10 @@
         <v>507800</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.2395</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>629400</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.2395</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>202</v>
@@ -7029,10 +7029,10 @@
         <v>573600</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.4179</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>813300</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.4179</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>134</v>
@@ -7051,10 +7051,10 @@
         <v>456070</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1.4765</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>673371</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1.4765</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>224</v>
@@ -7073,10 +7073,10 @@
         <v>653142</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>513338</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>0.786</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>76</v>
@@ -7095,10 +7095,10 @@
         <v>428982</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.1354</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>487046</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.1354</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>134</v>
@@ -7117,10 +7117,10 @@
         <v>338223</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.3084</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>442543</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.3084</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>244</v>
@@ -7139,10 +7139,10 @@
         <v>306000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.0229</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>313000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.0229</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>261</v>
@@ -7161,10 +7161,10 @@
         <v>244000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>0.9508</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>232000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>0.9508</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>38</v>
@@ -7183,10 +7183,10 @@
         <v>105300</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.1662</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>122800</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.1662</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>50</v>
@@ -7205,10 +7205,10 @@
         <v>110173</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.2273</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>135215</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.2273</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>80</v>
@@ -7227,10 +7227,10 @@
         <v>200815</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.9902000000000001</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>198854</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>0.9902000000000001</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>53</v>
@@ -7249,10 +7249,10 @@
         <v>201161</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>128738</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.64</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>109</v>
@@ -7271,10 +7271,10 @@
         <v>195000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1.3231</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>258000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1.3231</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>164</v>
@@ -7293,10 +7293,10 @@
         <v>262000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>0.6183</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>162000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>0.6183</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>41</v>
@@ -7315,10 +7315,10 @@
         <v>218000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1.0546</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>229900</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1.0546</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>62</v>
@@ -7337,10 +7337,10 @@
         <v>308500</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>0.6081</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>187600</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>0.6081</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>110</v>
@@ -7359,10 +7359,10 @@
         <v>273000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>199840</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>0.732</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>90</v>
@@ -7381,10 +7381,10 @@
         <v>241500</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1.1914</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>287721</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1.1914</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>128</v>
@@ -7403,10 +7403,10 @@
         <v>216415</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1.3257</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>286909</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1.3257</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>115</v>
@@ -7425,10 +7425,10 @@
         <v>208854</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.3299</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>68893</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.3299</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>130</v>
@@ -7447,10 +7447,10 @@
         <v>146837</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1.3151</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>193108</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1.3151</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>137</v>
@@ -7469,10 +7469,10 @@
         <v>150802</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1.1627</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>175338</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1.1627</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>121</v>
@@ -7491,10 +7491,10 @@
         <v>249671</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.8886000000000001</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>221859</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.8886000000000001</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>143</v>
@@ -7513,10 +7513,10 @@
         <v>177421</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1.0724</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>190268</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1.0724</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>233</v>
@@ -7535,10 +7535,10 @@
         <v>93077</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>109362</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1.175</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>402</v>
@@ -7557,10 +7557,10 @@
         <v>67540</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1.2728</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>85964</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1.2728</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>212</v>
@@ -7579,10 +7579,10 @@
         <v>54870</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.9853</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>54066</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.9853</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -7601,10 +7601,10 @@
         <v>67702</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.9246</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>62600</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.9246</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -7623,10 +7623,10 @@
         <v>26400</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1.3788</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>36400</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1.3788</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7645,10 +7645,10 @@
         <v>6400</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.9218999999999999</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>5900</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.9218999999999999</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -7667,10 +7667,10 @@
         <v>3100</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1.1613</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>3600</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1.1613</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -7688,10 +7688,10 @@
       <c r="C53" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D53" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
       </c>
@@ -7708,10 +7708,10 @@
       <c r="C54" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D54" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
       </c>
@@ -7728,10 +7728,10 @@
       <c r="C55" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D55" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
       </c>
@@ -7748,10 +7748,10 @@
       <c r="C56" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D56" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
       </c>
@@ -7768,10 +7768,10 @@
       <c r="C57" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D57" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
       </c>
@@ -7788,10 +7788,10 @@
       <c r="C58" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D58" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
       </c>
@@ -7808,10 +7808,10 @@
       <c r="C59" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D59" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
       </c>
@@ -7828,10 +7828,10 @@
       <c r="C60" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D60" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
       </c>
@@ -7848,10 +7848,10 @@
       <c r="C61" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D61" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
       </c>
@@ -7868,10 +7868,10 @@
       <c r="C62" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D62" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
       </c>
@@ -7888,10 +7888,10 @@
       <c r="C63" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D63" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
       </c>
@@ -7908,10 +7908,10 @@
       <c r="C64" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D64" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
       </c>
@@ -7928,10 +7928,10 @@
       <c r="C65" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D65" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
       </c>
@@ -7948,10 +7948,10 @@
       <c r="C66" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D66" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
       </c>
@@ -7968,10 +7968,10 @@
       <c r="C67" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D67" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
       </c>
@@ -7988,10 +7988,10 @@
       <c r="C68" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D68" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
       </c>
@@ -8007,10 +8007,10 @@
       <c r="C69" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D69" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
       </c>
@@ -8026,10 +8026,10 @@
       <c r="C70" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D70" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
       </c>
@@ -8045,10 +8045,10 @@
       <c r="C71" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D71" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
       </c>
@@ -8064,10 +8064,10 @@
       <c r="C72" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D72" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
       </c>
@@ -8083,10 +8083,10 @@
       <c r="C73" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D73" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
       </c>
@@ -8102,10 +8102,10 @@
       <c r="C74" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D74" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
       </c>
@@ -8440,7 +8440,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8519,10 +8519,10 @@
         <v>458772</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1.2642</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>580000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1.2642</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>313982.45</v>
@@ -8541,10 +8541,10 @@
         <v>456480</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1.2706</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>580000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1.2706</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>106247.33</v>
@@ -8563,10 +8563,10 @@
         <v>481667</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>0.9862000000000001</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>475000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>0.9862000000000001</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>129497.51</v>
@@ -8585,10 +8585,10 @@
         <v>511493</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1.2317</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>630000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1.2317</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>123271.02</v>
@@ -8607,10 +8607,10 @@
         <v>517785</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1.2167</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>630000</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1.2167</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>114769.64</v>
@@ -8629,10 +8629,10 @@
         <v>514102</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1.2254</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>630000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1.2254</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>92959.36</v>
@@ -8651,10 +8651,10 @@
         <v>392673</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1.1969</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>470000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1.1969</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>90241.38</v>
@@ -8673,10 +8673,10 @@
         <v>351687</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1.2938</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>455000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1.2938</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>30446.25</v>
@@ -8695,10 +8695,10 @@
         <v>357222</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1.2877</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>460000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1.2877</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>37306.39</v>
@@ -8717,10 +8717,10 @@
         <v>388169</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1.1593</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>450000</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1.1593</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>41164.22</v>
@@ -8739,10 +8739,10 @@
         <v>418889</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.208</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>506000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.208</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>56875</v>
@@ -8761,10 +8761,10 @@
         <v>408699</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.2674</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>518000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.2674</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>34939</v>
@@ -8783,10 +8783,10 @@
         <v>400367</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1.2176</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>487477</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1.2176</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>8450</v>
@@ -8805,10 +8805,10 @@
         <v>446218</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1.1892</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>530634</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1.1892</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>7586</v>
@@ -8827,10 +8827,10 @@
         <v>454928</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.2366</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>562564</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.2366</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>4404</v>
@@ -8849,10 +8849,10 @@
         <v>486199</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.0655</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>518026</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.0655</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>8760</v>
@@ -8871,10 +8871,10 @@
         <v>500283</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.0102</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>505366</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.0102</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>5178</v>
@@ -8893,10 +8893,10 @@
         <v>521894</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.0572</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>551746</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.0572</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>1881</v>
@@ -8915,10 +8915,10 @@
         <v>557500</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.0762</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>600000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.0762</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>646</v>
@@ -8937,10 +8937,10 @@
         <v>604290</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.026</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>620000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.026</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>546</v>
@@ -8959,10 +8959,10 @@
         <v>625968</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>600000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>0.9585</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>41</v>
@@ -8981,10 +8981,10 @@
         <v>655724</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.9913</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>650000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.9913</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>10636</v>
@@ -9003,10 +9003,10 @@
         <v>638680</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>0.8377</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>535000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>0.8377</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>14396</v>
@@ -9025,10 +9025,10 @@
         <v>622214</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>0.8807</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>548000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>0.8807</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>7411.87</v>
@@ -9047,10 +9047,10 @@
         <v>618110</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>560000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>0.906</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>8121</v>
@@ -9069,10 +9069,10 @@
         <v>658716</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>0.9488</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>625000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>0.9488</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>21075</v>
@@ -9091,10 +9091,10 @@
         <v>719650</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1.0005</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>720000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1.0005</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1411</v>
@@ -9113,10 +9113,10 @@
         <v>778315</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.9405</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>732000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.9405</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>193</v>
@@ -9135,10 +9135,10 @@
         <v>741766</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.9841</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>730000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.9841</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>513</v>
@@ -9157,10 +9157,10 @@
         <v>756179</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.8596</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>650000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.8596</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -9179,10 +9179,10 @@
         <v>780420</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.9482</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>740000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.9482</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -9201,10 +9201,10 @@
         <v>827538</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.9305</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>770000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.9305</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -9223,10 +9223,10 @@
         <v>874393</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>855000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.9778</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>877976</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.9795</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>860000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.9795</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>40</v>
@@ -9267,10 +9267,10 @@
         <v>796000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>683000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.858</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>40</v>
@@ -9289,10 +9289,10 @@
         <v>773066</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1.0057</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>777500</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1.0057</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9311,10 +9311,10 @@
         <v>655324</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1.1063</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>725000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1.1063</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9333,10 +9333,10 @@
         <v>533263</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1.1814</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>630000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1.1814</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>398902</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1.0028</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>400000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1.0028</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9377,10 +9377,10 @@
         <v>343469</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.9752999999999999</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>335000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.9752999999999999</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9399,10 +9399,10 @@
         <v>334500</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>290000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.867</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>245000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1.1429</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>280000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1.1429</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9443,10 +9443,10 @@
         <v>200000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>235000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1.175</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9465,10 +9465,10 @@
         <v>240000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1.1458</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>275000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1.1458</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9487,10 +9487,10 @@
         <v>200000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>225000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1.125</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9509,10 +9509,10 @@
         <v>168000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1.2202</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>205000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1.2202</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9531,10 +9531,10 @@
         <v>138000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1.3043</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>180000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1.3043</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9553,10 +9553,10 @@
         <v>137000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1.2409</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>170000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1.2409</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9575,10 +9575,10 @@
         <v>140000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1.2286</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>172000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1.2286</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9597,10 +9597,10 @@
         <v>175000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1.1143</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>195000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1.1143</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9619,10 +9619,10 @@
         <v>185000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>185000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9641,10 +9641,10 @@
         <v>162000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1.1296</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>183000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1.1296</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9663,10 +9663,10 @@
         <v>110000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1.2091</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>133000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1.2091</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9685,10 +9685,10 @@
         <v>100000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>109000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1.09</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9707,10 +9707,10 @@
         <v>89800</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1.2361</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>111000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1.2361</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>90000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1.1333</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>102000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1.1333</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9751,10 +9751,10 @@
         <v>85000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1.1412</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>97000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1.1412</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9772,10 +9772,10 @@
         <v>83000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1.0723</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>89000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1.0723</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9793,10 +9793,10 @@
         <v>85000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1.0471</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>89000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1.0471</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>85000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1.0588</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>90000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1.0588</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9835,10 +9835,10 @@
         <v>82000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1.061</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>87000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1.061</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9856,10 +9856,10 @@
         <v>88000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.9932000000000001</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>87400</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.9932000000000001</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>89000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1.0112</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>90000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1.0112</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10216,7 +10216,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10295,10 +10295,10 @@
         <v>403482</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1.3148</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>530494.91</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1.3148</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1203.48</v>
@@ -10317,10 +10317,10 @@
         <v>344499</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1.3583</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>467933.58</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1.3583</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>744.0700000000001</v>
@@ -10339,10 +10339,10 @@
         <v>313039</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1.0121</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>316840.4</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1.0121</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>929.1</v>
@@ -10361,10 +10361,10 @@
         <v>335261</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>0.8683999999999999</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>291132.9</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>0.8683999999999999</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>909.1</v>
@@ -10383,10 +10383,10 @@
         <v>551663</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>0.9175</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>506166.1</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>0.9175</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>534.47</v>
@@ -10405,10 +10405,10 @@
         <v>819330</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>0.7572000000000001</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>620400</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>0.7572000000000001</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1167.93</v>
@@ -10427,10 +10427,10 @@
         <v>457051</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>418646.2</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>0.916</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1113.35</v>
@@ -10449,10 +10449,10 @@
         <v>357945</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>0.8939</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>319969</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>0.8939</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>649.22</v>
@@ -10828,387 +10828,722 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="28" t="n">
-        <v>1991</v>
-      </c>
-      <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="inlineStr"/>
-      <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="28" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="inlineStr"/>
-      <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
+      <c r="B45" s="29" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -11518,7 +11853,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11597,10 +11932,10 @@
         <v>210408</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2.1449</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>451309.28</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2.1449</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4335.25</v>
@@ -11619,10 +11954,10 @@
         <v>202203</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2.0022</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>404846.46</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2.0022</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>3.08</v>
@@ -11641,10 +11976,10 @@
         <v>201274</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1.9935</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>401239</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1.9935</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>107.55</v>
@@ -11663,10 +11998,10 @@
         <v>220719</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2.072</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>457319.37</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2.072</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2.22</v>
@@ -11685,10 +12020,10 @@
         <v>208838</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2.0839</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>435193.21</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2.0839</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3.46</v>
@@ -11707,10 +12042,10 @@
         <v>239786</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1.9149</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>459173.19</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1.9149</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>127.73</v>
@@ -11729,10 +12064,10 @@
         <v>242704</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2.0578</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>499425.55</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2.0578</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>7.09</v>
@@ -11751,10 +12086,10 @@
         <v>225608</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1.9687</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>444146</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1.9687</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>7.91</v>
@@ -11773,10 +12108,10 @@
         <v>258486</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2.0154</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>520964.73</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2.0154</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>22.18</v>
@@ -11795,10 +12130,10 @@
         <v>239755</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1.9131</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>458682</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1.9131</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>36.01</v>
@@ -11817,10 +12152,10 @@
         <v>229720</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.7836</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>409733</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.7836</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1</v>
@@ -11839,10 +12174,10 @@
         <v>239512</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.7107</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>409733</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.7107</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>5</v>
@@ -11861,10 +12196,10 @@
         <v>231299</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1.7303</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>400208</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1.7303</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>3</v>
@@ -11883,10 +12218,10 @@
         <v>208389</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1.5492</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>322839</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1.5492</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1</v>
@@ -11905,10 +12240,10 @@
         <v>213187</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.3352</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>284640</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.3352</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -11927,10 +12262,10 @@
         <v>226785</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.2647</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>286820</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.2647</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>4094</v>
@@ -11949,10 +12284,10 @@
         <v>200066</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.2689</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>253871</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.2689</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>26</v>
@@ -11971,10 +12306,10 @@
         <v>201009</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.0476</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>210585</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.0476</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>812</v>
@@ -11993,10 +12328,10 @@
         <v>211490</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.0258</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>216937</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.0258</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1</v>
@@ -12015,10 +12350,10 @@
         <v>181079</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>0.8994</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>162858</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>0.8994</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>251</v>
@@ -12037,10 +12372,10 @@
         <v>154281</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.8811</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>135930</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>0.8811</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -12059,10 +12394,10 @@
         <v>194981</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>186801</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.958</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -12081,10 +12416,10 @@
         <v>211910</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>0.8292999999999999</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>175734</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>0.8292999999999999</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -12103,10 +12438,10 @@
         <v>184790</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>0.8909</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>164627</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>0.8909</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>100</v>
@@ -12125,10 +12460,10 @@
         <v>167650</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>0.8281000000000001</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>138837</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>0.8281000000000001</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -12145,10 +12480,10 @@
         <v>179880</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>0.7624</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>137133</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>0.7624</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -12165,10 +12500,10 @@
         <v>118890</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>0.9957999999999999</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>118388</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>0.9957999999999999</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -12185,10 +12520,10 @@
         <v>150400</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.9448</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>142097</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.9448</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -12205,10 +12540,10 @@
         <v>178890</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>124507</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.696</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -12225,10 +12560,10 @@
         <v>131250</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.5491</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>72075</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.5491</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -12245,10 +12580,10 @@
         <v>109750</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.5475</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>60085</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.5475</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -12258,399 +12593,745 @@
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="28" t="n">
-        <v>1992</v>
-      </c>
-      <c r="C43" s="29" t="inlineStr"/>
-      <c r="D43" s="29" t="inlineStr"/>
-      <c r="E43" s="29" t="inlineStr"/>
-      <c r="F43" s="29" t="inlineStr"/>
-      <c r="G43" s="29" t="inlineStr"/>
+      <c r="B43" s="29" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="C43" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H43" s="29" t="n"/>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="28" t="n">
-        <v>1991</v>
-      </c>
-      <c r="C44" s="29" t="inlineStr"/>
-      <c r="D44" s="29" t="inlineStr"/>
-      <c r="E44" s="29" t="inlineStr"/>
-      <c r="F44" s="29" t="inlineStr"/>
-      <c r="G44" s="29" t="inlineStr"/>
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="C44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="28" t="n">
-        <v>1990</v>
-      </c>
-      <c r="C45" s="29" t="inlineStr"/>
-      <c r="D45" s="29" t="inlineStr"/>
-      <c r="E45" s="29" t="inlineStr"/>
-      <c r="F45" s="29" t="inlineStr"/>
-      <c r="G45" s="29" t="inlineStr"/>
-      <c r="H45" s="29" t="n"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="28" t="n">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="29" t="inlineStr"/>
-      <c r="D46" s="29" t="inlineStr"/>
-      <c r="E46" s="29" t="inlineStr"/>
-      <c r="F46" s="29" t="inlineStr"/>
-      <c r="G46" s="29" t="inlineStr"/>
-      <c r="H46" s="29" t="n"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="28" t="n">
-        <v>1988</v>
-      </c>
-      <c r="C47" s="29" t="inlineStr"/>
-      <c r="D47" s="29" t="inlineStr"/>
-      <c r="E47" s="29" t="inlineStr"/>
-      <c r="F47" s="29" t="inlineStr"/>
-      <c r="G47" s="29" t="inlineStr"/>
-      <c r="H47" s="29" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="28" t="n">
-        <v>1987</v>
-      </c>
-      <c r="C48" s="29" t="inlineStr"/>
-      <c r="D48" s="29" t="inlineStr"/>
-      <c r="E48" s="29" t="inlineStr"/>
-      <c r="F48" s="29" t="inlineStr"/>
-      <c r="G48" s="29" t="inlineStr"/>
-      <c r="H48" s="29" t="n"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="28" t="n">
-        <v>1986</v>
-      </c>
-      <c r="C49" s="29" t="inlineStr"/>
-      <c r="D49" s="29" t="inlineStr"/>
-      <c r="E49" s="29" t="inlineStr"/>
-      <c r="F49" s="29" t="inlineStr"/>
-      <c r="G49" s="29" t="inlineStr"/>
-      <c r="H49" s="29" t="n"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="28" t="n">
-        <v>1985</v>
-      </c>
-      <c r="C50" s="29" t="inlineStr"/>
-      <c r="D50" s="29" t="inlineStr"/>
-      <c r="E50" s="29" t="inlineStr"/>
-      <c r="F50" s="29" t="inlineStr"/>
-      <c r="G50" s="29" t="inlineStr"/>
-      <c r="H50" s="29" t="n"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="28" t="n">
-        <v>1984</v>
-      </c>
-      <c r="C51" s="29" t="inlineStr"/>
-      <c r="D51" s="29" t="inlineStr"/>
-      <c r="E51" s="29" t="inlineStr"/>
-      <c r="F51" s="29" t="inlineStr"/>
-      <c r="G51" s="29" t="inlineStr"/>
-      <c r="H51" s="29" t="n"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="28" t="n">
-        <v>1983</v>
-      </c>
-      <c r="C52" s="29" t="inlineStr"/>
-      <c r="D52" s="29" t="inlineStr"/>
-      <c r="E52" s="29" t="inlineStr"/>
-      <c r="F52" s="29" t="inlineStr"/>
-      <c r="G52" s="29" t="inlineStr"/>
-      <c r="H52" s="29" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="28" t="n">
-        <v>1982</v>
-      </c>
-      <c r="C53" s="29" t="inlineStr"/>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="inlineStr"/>
-      <c r="F53" s="29" t="inlineStr"/>
-      <c r="G53" s="29" t="inlineStr"/>
-      <c r="H53" s="29" t="n"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="28" t="n">
-        <v>1981</v>
-      </c>
-      <c r="C54" s="29" t="inlineStr"/>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="inlineStr"/>
-      <c r="F54" s="29" t="inlineStr"/>
-      <c r="G54" s="29" t="inlineStr"/>
-      <c r="H54" s="29" t="n"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="C55" s="29" t="inlineStr"/>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="inlineStr"/>
-      <c r="F55" s="29" t="inlineStr"/>
-      <c r="G55" s="29" t="inlineStr"/>
-      <c r="H55" s="29" t="n"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="28" t="n">
-        <v>1979</v>
-      </c>
-      <c r="C56" s="29" t="inlineStr"/>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="inlineStr"/>
-      <c r="F56" s="29" t="inlineStr"/>
-      <c r="G56" s="29" t="inlineStr"/>
-      <c r="H56" s="29" t="n"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="28" t="n">
-        <v>1978</v>
-      </c>
-      <c r="C57" s="29" t="inlineStr"/>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="inlineStr"/>
-      <c r="F57" s="29" t="inlineStr"/>
-      <c r="G57" s="29" t="inlineStr"/>
-      <c r="H57" s="29" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="28" t="n">
-        <v>1977</v>
-      </c>
-      <c r="C58" s="29" t="inlineStr"/>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="inlineStr"/>
-      <c r="F58" s="29" t="inlineStr"/>
-      <c r="G58" s="29" t="inlineStr"/>
-      <c r="H58" s="29" t="n"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="28" t="n">
-        <v>1976</v>
-      </c>
-      <c r="C59" s="29" t="inlineStr"/>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="inlineStr"/>
-      <c r="F59" s="29" t="inlineStr"/>
-      <c r="G59" s="29" t="inlineStr"/>
-      <c r="H59" s="29" t="n"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="28" t="n">
-        <v>1975</v>
-      </c>
-      <c r="C60" s="29" t="inlineStr"/>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="inlineStr"/>
-      <c r="F60" s="29" t="inlineStr"/>
-      <c r="G60" s="29" t="inlineStr"/>
-      <c r="H60" s="29" t="n"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="28" t="n">
-        <v>1974</v>
-      </c>
-      <c r="C61" s="29" t="inlineStr"/>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="inlineStr"/>
-      <c r="F61" s="29" t="inlineStr"/>
-      <c r="G61" s="29" t="inlineStr"/>
-      <c r="H61" s="29" t="n"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="28" t="n">
-        <v>1973</v>
-      </c>
-      <c r="C62" s="29" t="inlineStr"/>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="inlineStr"/>
-      <c r="F62" s="29" t="inlineStr"/>
-      <c r="G62" s="29" t="inlineStr"/>
-      <c r="H62" s="29" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="28" t="n">
-        <v>1972</v>
-      </c>
-      <c r="C63" s="29" t="inlineStr"/>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="inlineStr"/>
-      <c r="F63" s="29" t="inlineStr"/>
-      <c r="G63" s="29" t="inlineStr"/>
-      <c r="H63" s="29" t="n"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="28" t="n">
-        <v>1971</v>
-      </c>
-      <c r="C64" s="29" t="inlineStr"/>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="inlineStr"/>
-      <c r="F64" s="29" t="inlineStr"/>
-      <c r="G64" s="29" t="inlineStr"/>
-      <c r="H64" s="29" t="n"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="28" t="n">
-        <v>1970</v>
-      </c>
-      <c r="C65" s="29" t="inlineStr"/>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="inlineStr"/>
-      <c r="F65" s="29" t="inlineStr"/>
-      <c r="G65" s="29" t="inlineStr"/>
-      <c r="H65" s="29" t="n"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="28" t="n">
-        <v>1969</v>
-      </c>
-      <c r="C66" s="29" t="inlineStr"/>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="inlineStr"/>
-      <c r="F66" s="29" t="inlineStr"/>
-      <c r="G66" s="29" t="inlineStr"/>
-      <c r="H66" s="29" t="n"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="28" t="n">
-        <v>1968</v>
-      </c>
-      <c r="C67" s="29" t="inlineStr"/>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="inlineStr"/>
-      <c r="F67" s="29" t="inlineStr"/>
-      <c r="G67" s="29" t="inlineStr"/>
-      <c r="H67" s="29" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="28" t="n">
-        <v>1967</v>
-      </c>
-      <c r="C68" s="29" t="inlineStr"/>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="inlineStr"/>
-      <c r="F68" s="29" t="inlineStr"/>
-      <c r="G68" s="29" t="inlineStr"/>
-      <c r="H68" s="29" t="n"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="C69" s="29" t="inlineStr"/>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="inlineStr"/>
-      <c r="F69" s="29" t="inlineStr"/>
-      <c r="G69" s="29" t="inlineStr"/>
-      <c r="H69" s="29" t="n"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="28" t="n">
-        <v>1965</v>
-      </c>
-      <c r="C70" s="29" t="inlineStr"/>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="inlineStr"/>
-      <c r="F70" s="29" t="inlineStr"/>
-      <c r="G70" s="29" t="inlineStr"/>
-      <c r="H70" s="29" t="n"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="28" t="n">
-        <v>1964</v>
-      </c>
-      <c r="C71" s="29" t="inlineStr"/>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="inlineStr"/>
-      <c r="F71" s="29" t="inlineStr"/>
-      <c r="G71" s="29" t="inlineStr"/>
-      <c r="H71" s="29" t="n"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="28" t="n">
-        <v>1963</v>
-      </c>
-      <c r="C72" s="29" t="inlineStr"/>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="inlineStr"/>
-      <c r="F72" s="29" t="inlineStr"/>
-      <c r="G72" s="29" t="inlineStr"/>
-      <c r="H72" s="29" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="28" t="n">
-        <v>1962</v>
-      </c>
-      <c r="C73" s="29" t="inlineStr"/>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="inlineStr"/>
-      <c r="F73" s="29" t="inlineStr"/>
-      <c r="G73" s="29" t="inlineStr"/>
-      <c r="H73" s="29" t="n"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="28" t="n">
-        <v>1961</v>
-      </c>
-      <c r="C74" s="29" t="inlineStr"/>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="inlineStr"/>
-      <c r="F74" s="29" t="inlineStr"/>
-      <c r="G74" s="29" t="inlineStr"/>
-      <c r="H74" s="29" t="n"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="29" t="n"/>
-      <c r="C75" s="29" t="n"/>
-      <c r="D75" s="29" t="n"/>
-      <c r="E75" s="29" t="n"/>
-      <c r="F75" s="29" t="n"/>
-      <c r="G75" s="29" t="n"/>
-      <c r="H75" s="29" t="n"/>
+      <c r="C75" s="17" t="n"/>
+      <c r="D75" s="17" t="n"/>
+      <c r="E75" s="18" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="29" t="n"/>
-      <c r="C76" s="29" t="n"/>
-      <c r="D76" s="29" t="n"/>
-      <c r="E76" s="29" t="n"/>
-      <c r="F76" s="29" t="n"/>
-      <c r="G76" s="29" t="n"/>
-      <c r="H76" s="29" t="n"/>
+      <c r="C76" s="17" t="n"/>
+      <c r="D76" s="17" t="n"/>
+      <c r="E76" s="18" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>

--- a/Resultados/Mercado mundial - Garbanzos secos.xlsx
+++ b/Resultados/Mercado mundial - Garbanzos secos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Australia" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Federación de Rusia" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Etiopía" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="India" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Australia" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Russian Federation" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Ethiopia" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -406,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +432,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +596,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -734,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,10 +760,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -816,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,10 +842,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -898,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,10 +924,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -980,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Federación de Rusia'!$B$12:$B$74</f>
+              <f>'Russian Federation'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Federación de Rusia'!$C$12:$C$74</f>
+              <f>'Russian Federation'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Etiopía'!$B$12:$B$74</f>
+              <f>'Ethiopia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Etiopía'!$C$12:$C$74</f>
+              <f>'Ethiopia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2138,10 @@
         <v>14096756</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>16517592.32</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1.1717</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>16517592.32</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2834745.36</v>
@@ -2160,10 +2160,10 @@
         <v>14722366</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>17914426.63</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1.2168</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>17914426.63</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>1920282.1</v>
@@ -2182,10 +2182,10 @@
         <v>13993910</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>15737437.64</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1.1246</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>15737437.64</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>1912504.36</v>
@@ -2204,10 +2204,10 @@
         <v>13501471</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>15024278.11</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1.1128</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>15024278.11</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>1926329.94</v>
@@ -2226,10 +2226,10 @@
         <v>13842429</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>14220781.65</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1.0273</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>14220781.65</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>2160903.28</v>
@@ -2248,10 +2248,10 @@
         <v>16188524</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>16937880.48</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1.0463</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>16937880.48</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2060263.36</v>
@@ -2270,10 +2270,10 @@
         <v>14567096</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>15152266.12</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1.0402</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>15152266.12</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>3361667.06</v>
@@ -2292,10 +2292,10 @@
         <v>12936948</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>11604334.31</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>0.897</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>11604334.31</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2034468.65</v>
@@ -2314,10 +2314,10 @@
         <v>11775828</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>10897155.5</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>0.9254</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>10897155.5</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1794935.67</v>
@@ -2336,10 +2336,10 @@
         <v>13736839</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>13303958.95</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>0.9685</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>13303958.95</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1419243.77</v>
@@ -2358,10 +2358,10 @@
         <v>12434651</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>13038219.16</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.0485</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>13038219.16</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1614119.8</v>
@@ -2380,10 +2380,10 @@
         <v>12369037</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>11630711.79</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>0.9402999999999999</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>11630711.79</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1454960</v>
@@ -2402,10 +2402,10 @@
         <v>12809877</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>11721521.73</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>0.915</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>11721521.73</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1116913</v>
@@ -2424,10 +2424,10 @@
         <v>12011683</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>10836652.1</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>0.9022</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>10836652.1</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1031403</v>
@@ -2446,10 +2446,10 @@
         <v>11552815</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>10416680.19</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>0.9017000000000001</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>10416680.19</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1140683</v>
@@ -2468,10 +2468,10 @@
         <v>11069550</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>8621557.970000001</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>0.7788999999999999</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>8621557.970000001</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>997260</v>
@@ -2490,10 +2490,10 @@
         <v>11266332</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>9746059.25</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>0.8651</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>9746059.25</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>893178</v>
@@ -2512,10 +2512,10 @@
         <v>10540344</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>8508541.17</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>0.8072</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>8508541.17</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>782393</v>
@@ -2534,10 +2534,10 @@
         <v>10196955</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>8455058.65</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>0.8292</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>8455058.65</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>832377</v>
@@ -2556,10 +2556,10 @@
         <v>10442336</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>8394502.779999999</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>0.8038999999999999</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>8394502.779999999</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>740935</v>
@@ -2578,10 +2578,10 @@
         <v>9633371</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>7108461.11</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.7379</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>7108461.11</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>922787</v>
@@ -2600,10 +2600,10 @@
         <v>10384946</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>8287104.42</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.798</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>8287104.42</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>860172</v>
@@ -2622,10 +2622,10 @@
         <v>9509456</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>7030615.55</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>0.7393</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>7030615.55</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1118319.84</v>
@@ -2644,10 +2644,10 @@
         <v>10164905</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>8036706.32</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>0.7906</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>8036706.32</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>615574.04</v>
@@ -2666,10 +2666,10 @@
         <v>12200211</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>9465522.029999999</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>0.7757999999999999</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>9465522.029999999</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>413163.88</v>
@@ -2688,10 +2688,10 @@
         <v>11436458</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>8871521.01</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>0.7757000000000001</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>8871521.01</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>511832.46</v>
@@ -2710,10 +2710,10 @@
         <v>10803334</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>8341432.12</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>0.7721</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>8341432.12</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>848702.91</v>
@@ -2732,10 +2732,10 @@
         <v>11431492</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>8111609.52</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.7096</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>8111609.52</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>578952.4</v>
@@ -2754,10 +2754,10 @@
         <v>11448410</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>9173281.73</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.8012999999999999</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>9173281.73</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>303091</v>
@@ -2776,10 +2776,10 @@
         <v>9975485</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>7148325.26</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.7166</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>7148325.26</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>468095</v>
@@ -2798,10 +2798,10 @@
         <v>10091220</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>6751374.45</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.669</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>6751374.45</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>641159</v>
@@ -2820,10 +2820,10 @@
         <v>9250066</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>6647265.75</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.7186</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>6647265.75</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>461463</v>
@@ -2842,10 +2842,10 @@
         <v>11432293</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>8119280.13</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.7102000000000001</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>8119280.13</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>468948</v>
@@ -2864,10 +2864,10 @@
         <v>9925771</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>6786780</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.6838</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>6786780</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>426986</v>
@@ -2886,10 +2886,10 @@
         <v>9901303</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>7175739</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.7247</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>7175739</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>350953</v>
@@ -2908,10 +2908,10 @@
         <v>8785519</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>5768625</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.6566000000000001</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>5768625</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>491508</v>
@@ -2930,10 +2930,10 @@
         <v>10206714</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>6865382</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.6726</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>6865382</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>404556</v>
@@ -2952,10 +2952,10 @@
         <v>10847951</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>8086802</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.7455000000000001</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>8086802</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>218833</v>
@@ -2974,10 +2974,10 @@
         <v>9827587</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>6457971</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.6571</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>6457971</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>166849</v>
@@ -2996,10 +2996,10 @@
         <v>9852148</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>6606876</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.6706</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>6606876</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>165412</v>
@@ -3018,10 +3018,10 @@
         <v>10035450</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>7066256</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.7041000000000001</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>7066256</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>176055</v>
@@ -3040,10 +3040,10 @@
         <v>10303582</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>6164000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.5982000000000001</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>6164000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>150795</v>
@@ -3062,10 +3062,10 @@
         <v>8942942</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>5768235</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.645</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>5768235</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>137604</v>
@@ -3084,10 +3084,10 @@
         <v>9631007</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>4854451</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.504</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>4854451</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>113868</v>
@@ -3106,10 +3106,10 @@
         <v>10512032</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>7587409</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.7218</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>7587409</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>142254</v>
@@ -3128,10 +3128,10 @@
         <v>10561521</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>7151077</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.6771</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>7151077</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>111018</v>
@@ -3150,10 +3150,10 @@
         <v>10557011</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>7193607</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.6814</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>7193607</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>84293</v>
@@ -3172,10 +3172,10 @@
         <v>10803364</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>7428020</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.6876</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>7428020</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>75965</v>
@@ -3194,10 +3194,10 @@
         <v>9487128</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>5605989</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.5909</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>5605989</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>73159</v>
@@ -3216,10 +3216,10 @@
         <v>10573811</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>5972643</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.5649</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>5972643</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>70140</v>
@@ -3238,10 +3238,10 @@
         <v>9611543</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>6200052</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.6451</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>6200052</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>94903</v>
@@ -3260,10 +3260,10 @@
         <v>10484311</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>6716184</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.6406000000000001</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>6716184</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>92227</v>
@@ -3282,10 +3282,10 @@
         <v>10215958</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>6611310</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.6472</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>6611310</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>72945</v>
@@ -3304,10 +3304,10 @@
         <v>10199553</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>7096114</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.6957000000000001</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>7096114</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>73947</v>
@@ -3326,10 +3326,10 @@
         <v>9579256</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>5880415</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.6139</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>5880415</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>57058</v>
@@ -3348,10 +3348,10 @@
         <v>10915194</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>7525108</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.6894</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>7525108</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>43699</v>
@@ -3370,10 +3370,10 @@
         <v>10758567</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>5290391</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.4917</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>5290391</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>52642</v>
@@ -3391,10 +3391,10 @@
         <v>10513391</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>5682250</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.5405</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>5682250</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>56820</v>
@@ -3412,10 +3412,10 @@
         <v>11512462</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>7354357</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.6387999999999999</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>7354357</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>69820</v>
@@ -3433,10 +3433,10 @@
         <v>11898941</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>6018047</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.5058</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>6018047</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>43628</v>
@@ -3454,10 +3454,10 @@
         <v>11825548</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>6926985</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.5858</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>6926985</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>33580</v>
@@ -3475,10 +3475,10 @@
         <v>12188797</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>7258871</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.5955</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>7258871</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>44957</v>
@@ -3496,10 +3496,10 @@
         <v>11836682</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>7681851</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.649</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>7681851</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>48262</v>
@@ -3786,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3924,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Federación de Rusia</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Etiopía</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3966,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Pakistán</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Irán (República Islámica del)</t>
+          <t>Iran (Islamic Republic of)</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4008,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4116,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4229,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Federación de Rusia</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4271,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>República Unida de Tanzanía</t>
+          <t>United Republic of Tanzania</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4313,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Sudán</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4327,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Emiratos Árabes Unidos</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4341,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4537,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Pakistán</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4689,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Emiratos Árabes Unidos</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4731,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Argelia</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Arabia Saudita</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4932,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5011,10 @@
         <v>10470862</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>12267289.55</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1.1716</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>12267289.55</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>223839.99</v>
@@ -5033,10 +5033,10 @@
         <v>10740100</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>13543630</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1.261</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>13543630</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>82845.89</v>
@@ -5055,10 +5055,10 @@
         <v>9995920</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>11911180</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1.1916</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>11911180</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>238620.24</v>
@@ -5077,10 +5077,10 @@
         <v>9698750</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>11078500</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1.1423</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>11078500</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>305841.17</v>
@@ -5099,10 +5099,10 @@
         <v>9547030</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>9937990</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1.041</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>9937990</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>371883.44</v>
@@ -5121,10 +5121,10 @@
         <v>10560430</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>11379190</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1.0775</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>11379190</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>199771.47</v>
@@ -5143,10 +5143,10 @@
         <v>9626160</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>9377560</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>0.9742000000000001</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>9377560</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1553069.31</v>
@@ -5165,10 +5165,10 @@
         <v>8399000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>7058000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>0.8402999999999999</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>7058000</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>873541.9</v>
@@ -5187,10 +5187,10 @@
         <v>8251000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>7332000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>0.8886000000000001</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>7332000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>688125.35</v>
@@ -5209,10 +5209,10 @@
         <v>9927000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>9530000</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>0.96</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>9530000</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>381313.85</v>
@@ -5231,10 +5231,10 @@
         <v>8522000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>8832500</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.0364</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>8832500</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>538329</v>
@@ -5253,10 +5253,10 @@
         <v>8320000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>7700000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>0.9255</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>7700000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>471974</v>
@@ -5275,10 +5275,10 @@
         <v>9190000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>8220000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>0.8945</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>8220000</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>142776</v>
@@ -5297,10 +5297,10 @@
         <v>8170000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>7480000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>0.9155</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>7480000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>56211</v>
@@ -5319,10 +5319,10 @@
         <v>7890000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>7060000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>0.8947999999999999</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>7060000</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>338391</v>
@@ -5341,10 +5341,10 @@
         <v>7543700</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>5748600</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>0.762</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>5748600</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>198215</v>
@@ -5363,10 +5363,10 @@
         <v>7493900</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>6333700</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>0.8452000000000001</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>6333700</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>145605</v>
@@ -5385,10 +5385,10 @@
         <v>6896200</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>5575400</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>0.8085</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>5575400</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>127318</v>
@@ -5407,10 +5407,10 @@
         <v>6714600</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>5469400</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>0.8146</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>5469400</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>281756</v>
@@ -5429,10 +5429,10 @@
         <v>7048100</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>5717500</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>0.8112</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>5717500</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>132518</v>
@@ -5451,10 +5451,10 @@
         <v>5906400</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>4236800</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.7172999999999999</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>4236800</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>259239</v>
@@ -5473,10 +5473,10 @@
         <v>6416200</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>5473000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.853</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>5473000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>217553</v>
@@ -5495,10 +5495,10 @@
         <v>5185300</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>3855400</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>0.7435</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>3855400</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>516819</v>
@@ -5517,10 +5517,10 @@
         <v>6146300</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>5118100</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>0.8327</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>5118100</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>63976</v>
@@ -5539,10 +5539,10 @@
         <v>8469100</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>6800700</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>0.803</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>6800700</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>11025.03</v>
@@ -5561,10 +5561,10 @@
         <v>7563200</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>6132200</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>0.8108</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>6132200</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>110132</v>
@@ -5583,10 +5583,10 @@
         <v>6846700</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>5565900</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>0.8129</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>5565900</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>380867</v>
@@ -5605,10 +5605,10 @@
         <v>7116000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>4979000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.6997000000000001</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>4979000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>122061</v>
@@ -5627,10 +5627,10 @@
         <v>7543000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>6435500</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.8532000000000001</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>6435500</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>13662</v>
@@ -5649,10 +5649,10 @@
         <v>6358900</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>4980800</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.7833</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>4980800</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>58127</v>
@@ -5671,10 +5671,10 @@
         <v>6453700</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>4416700</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.6844</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>4416700</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>150181</v>
@@ -5693,10 +5693,10 @@
         <v>5579900</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>4121000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.7385</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>4121000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>77012</v>
@@ -5715,10 +5715,10 @@
         <v>7521300</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>5356400</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.7122000000000001</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>5356400</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>98751</v>
@@ -5737,10 +5737,10 @@
         <v>6470500</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>4217300</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.6517999999999999</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>4217300</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>160116</v>
@@ -5759,10 +5759,10 @@
         <v>6809500</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>5129100</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.7532000000000001</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>5129100</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>66989</v>
@@ -5781,10 +5781,10 @@
         <v>5767000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>3625500</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.6287</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>3625500</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>216734</v>
@@ -5803,10 +5803,10 @@
         <v>6983600</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>4531800</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.6489</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>4531800</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>229881</v>
@@ -5825,10 +5825,10 @@
         <v>7804500</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>5787900</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.7416</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>5787900</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>16623</v>
@@ -5847,10 +5847,10 @@
         <v>6904200</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>4561400</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.6607000000000001</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>4561400</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>26600</v>
@@ -5869,10 +5869,10 @@
         <v>7161000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>4750000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.6633</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>4750000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>2728</v>
@@ -5891,10 +5891,10 @@
         <v>7398900</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>5289900</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.715</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>5289900</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>3844</v>
@@ -5913,10 +5913,10 @@
         <v>7868100</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>4642100</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.59</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>4642100</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1867</v>
@@ -5935,10 +5935,10 @@
         <v>6584100</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>4328000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.6573</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>4328000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>3733</v>
@@ -5957,10 +5957,10 @@
         <v>6985000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>3356300</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.4805</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>3356300</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>7556</v>
@@ -5979,10 +5979,10 @@
         <v>7708000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>5738800</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.7445000000000001</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>5738800</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>3347</v>
@@ -6001,10 +6001,10 @@
         <v>7973700</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>5409500</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.6784</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>5409500</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>3018</v>
@@ -6023,10 +6023,10 @@
         <v>7974100</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>5424300</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.6802</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>5424300</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1367</v>
@@ -6045,10 +6045,10 @@
         <v>8320100</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>5879500</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.7067</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>5879500</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>201</v>
@@ -6067,10 +6067,10 @@
         <v>7041600</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>4014800</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.5702</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>4014800</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>255</v>
@@ -6089,10 +6089,10 @@
         <v>7761000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>4099000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.5282</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>4099000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>384</v>
@@ -6111,10 +6111,10 @@
         <v>6967500</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>4536800</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.6511</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>4536800</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1355</v>
@@ -6133,10 +6133,10 @@
         <v>7912400</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>5080700</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.6421</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>5080700</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>99</v>
@@ -6155,10 +6155,10 @@
         <v>7838700</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>5199200</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.6633</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>5199200</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>858</v>
@@ -6177,10 +6177,10 @@
         <v>7751500</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>5545600</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.7153999999999999</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>5545600</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>891</v>
@@ -6199,10 +6199,10 @@
         <v>7105500</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>4309500</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.6065</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>4309500</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>785</v>
@@ -6221,10 +6221,10 @@
         <v>8256700</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>5971500</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.7232000000000001</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>5971500</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>185</v>
@@ -6243,10 +6243,10 @@
         <v>8003200</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>3622000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.4526</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>3622000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>290</v>
@@ -6264,10 +6264,10 @@
         <v>8015000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>4224000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.527</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>4224000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>200</v>
@@ -6285,10 +6285,10 @@
         <v>8870000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>5777000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.6513</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>5777000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>335</v>
@@ -6306,10 +6306,10 @@
         <v>9354000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>4502000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.4813</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>4502000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>18</v>
@@ -6327,10 +6327,10 @@
         <v>9193000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>5362000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.5832999999999999</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>5362000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6348,10 +6348,10 @@
         <v>9566000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>5785000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.6047</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>5785000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6369,10 +6369,10 @@
         <v>9276000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>6250000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.6738</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>6250000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6708,7 +6708,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6787,10 +6787,10 @@
         <v>283303</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>935390</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3.3017</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>935390</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>218.68</v>
@@ -6809,10 +6809,10 @@
         <v>615750</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1062250</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1.7251</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1062250</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>167.62</v>
@@ -6831,10 +6831,10 @@
         <v>606316</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>876468.13</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1.4456</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>876468.13</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>122.3</v>
@@ -6853,10 +6853,10 @@
         <v>263000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>281200</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1.0692</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>281200</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>149.01</v>
@@ -6875,10 +6875,10 @@
         <v>293947</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>205130</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>0.6978</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>205130</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>241.6</v>
@@ -6897,10 +6897,10 @@
         <v>1075136</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>998231</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>0.9285</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>998231</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>232.11</v>
@@ -6919,10 +6919,10 @@
         <v>1069000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2004000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1.8746</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2004000</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>199.05</v>
@@ -6941,10 +6941,10 @@
         <v>1095599</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1320200</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1.205</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1320200</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>414.51</v>
@@ -6963,10 +6963,10 @@
         <v>468000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>593680</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1.2685</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>593680</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>453.76</v>
@@ -6985,10 +6985,10 @@
         <v>507800</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>629400</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1.2395</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>629400</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>400.14</v>
@@ -7007,10 +7007,10 @@
         <v>507800</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>629400</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.2395</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>629400</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>202</v>
@@ -7029,10 +7029,10 @@
         <v>573600</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>813300</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.4179</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>813300</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>134</v>
@@ -7051,10 +7051,10 @@
         <v>456070</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>673371</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1.4765</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>673371</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>224</v>
@@ -7073,10 +7073,10 @@
         <v>653142</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>513338</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>0.786</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>513338</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>76</v>
@@ -7095,10 +7095,10 @@
         <v>428982</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>487046</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.1354</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>487046</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>134</v>
@@ -7117,10 +7117,10 @@
         <v>338223</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>442543</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.3084</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>442543</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>244</v>
@@ -7139,10 +7139,10 @@
         <v>306000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>313000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.0229</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>313000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>261</v>
@@ -7161,10 +7161,10 @@
         <v>244000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>232000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>0.9508</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>232000</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>38</v>
@@ -7183,10 +7183,10 @@
         <v>105300</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>122800</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.1662</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>122800</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>50</v>
@@ -7205,10 +7205,10 @@
         <v>110173</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>135215</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.2273</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>135215</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>80</v>
@@ -7227,10 +7227,10 @@
         <v>200815</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>198854</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.9902000000000001</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>198854</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>53</v>
@@ -7249,10 +7249,10 @@
         <v>201161</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>128738</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.64</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>128738</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>109</v>
@@ -7271,10 +7271,10 @@
         <v>195000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>258000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1.3231</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>258000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>164</v>
@@ -7293,10 +7293,10 @@
         <v>262000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>162000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>0.6183</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>162000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>41</v>
@@ -7315,10 +7315,10 @@
         <v>218000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>229900</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1.0546</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>229900</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>62</v>
@@ -7337,10 +7337,10 @@
         <v>308500</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>187600</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>0.6081</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>187600</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>110</v>
@@ -7359,10 +7359,10 @@
         <v>273000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>199840</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>0.732</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>199840</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>90</v>
@@ -7381,10 +7381,10 @@
         <v>241500</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>287721</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1.1914</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>287721</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>128</v>
@@ -7403,10 +7403,10 @@
         <v>216415</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>286909</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1.3257</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>286909</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>115</v>
@@ -7425,10 +7425,10 @@
         <v>208854</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>68893</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.3299</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>68893</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>130</v>
@@ -7447,10 +7447,10 @@
         <v>146837</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>193108</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1.3151</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>193108</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>137</v>
@@ -7469,10 +7469,10 @@
         <v>150802</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>175338</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1.1627</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>175338</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>121</v>
@@ -7491,10 +7491,10 @@
         <v>249671</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>221859</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.8886000000000001</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>221859</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>143</v>
@@ -7513,10 +7513,10 @@
         <v>177421</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>190268</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1.0724</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>190268</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>233</v>
@@ -7535,10 +7535,10 @@
         <v>93077</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>109362</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1.175</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>109362</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>402</v>
@@ -7557,10 +7557,10 @@
         <v>67540</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>85964</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1.2728</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>85964</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>212</v>
@@ -7579,10 +7579,10 @@
         <v>54870</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>54066</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.9853</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>54066</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -7601,10 +7601,10 @@
         <v>67702</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>62600</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.9246</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>62600</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -7623,10 +7623,10 @@
         <v>26400</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>36400</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1.3788</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>36400</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7645,10 +7645,10 @@
         <v>6400</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>5900</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.9218999999999999</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>5900</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -7667,10 +7667,10 @@
         <v>3100</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1.1613</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>3600</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -7688,10 +7688,10 @@
       <c r="C53" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D53" s="29" t="inlineStr"/>
-      <c r="E53" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D53" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="29" t="inlineStr"/>
       <c r="F53" s="29" t="n">
         <v>0</v>
       </c>
@@ -7708,10 +7708,10 @@
       <c r="C54" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D54" s="29" t="inlineStr"/>
-      <c r="E54" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D54" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="29" t="inlineStr"/>
       <c r="F54" s="29" t="n">
         <v>0</v>
       </c>
@@ -7728,10 +7728,10 @@
       <c r="C55" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D55" s="29" t="inlineStr"/>
-      <c r="E55" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D55" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="29" t="inlineStr"/>
       <c r="F55" s="29" t="n">
         <v>0</v>
       </c>
@@ -7748,10 +7748,10 @@
       <c r="C56" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D56" s="29" t="inlineStr"/>
-      <c r="E56" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D56" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="29" t="inlineStr"/>
       <c r="F56" s="29" t="n">
         <v>0</v>
       </c>
@@ -7768,10 +7768,10 @@
       <c r="C57" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D57" s="29" t="inlineStr"/>
-      <c r="E57" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D57" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="29" t="inlineStr"/>
       <c r="F57" s="29" t="n">
         <v>0</v>
       </c>
@@ -7788,10 +7788,10 @@
       <c r="C58" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D58" s="29" t="inlineStr"/>
-      <c r="E58" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D58" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="29" t="inlineStr"/>
       <c r="F58" s="29" t="n">
         <v>0</v>
       </c>
@@ -7808,10 +7808,10 @@
       <c r="C59" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D59" s="29" t="inlineStr"/>
-      <c r="E59" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D59" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="29" t="inlineStr"/>
       <c r="F59" s="29" t="n">
         <v>0</v>
       </c>
@@ -7828,10 +7828,10 @@
       <c r="C60" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D60" s="29" t="inlineStr"/>
-      <c r="E60" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D60" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="29" t="inlineStr"/>
       <c r="F60" s="29" t="n">
         <v>0</v>
       </c>
@@ -7848,10 +7848,10 @@
       <c r="C61" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D61" s="29" t="inlineStr"/>
-      <c r="E61" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D61" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="29" t="inlineStr"/>
       <c r="F61" s="29" t="n">
         <v>0</v>
       </c>
@@ -7868,10 +7868,10 @@
       <c r="C62" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D62" s="29" t="inlineStr"/>
-      <c r="E62" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D62" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="29" t="inlineStr"/>
       <c r="F62" s="29" t="n">
         <v>0</v>
       </c>
@@ -7888,10 +7888,10 @@
       <c r="C63" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D63" s="29" t="inlineStr"/>
-      <c r="E63" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D63" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="29" t="inlineStr"/>
       <c r="F63" s="29" t="n">
         <v>0</v>
       </c>
@@ -7908,10 +7908,10 @@
       <c r="C64" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D64" s="29" t="inlineStr"/>
-      <c r="E64" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D64" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="29" t="inlineStr"/>
       <c r="F64" s="29" t="n">
         <v>0</v>
       </c>
@@ -7928,10 +7928,10 @@
       <c r="C65" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D65" s="29" t="inlineStr"/>
-      <c r="E65" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D65" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="29" t="inlineStr"/>
       <c r="F65" s="29" t="n">
         <v>0</v>
       </c>
@@ -7948,10 +7948,10 @@
       <c r="C66" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D66" s="29" t="inlineStr"/>
-      <c r="E66" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D66" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="29" t="inlineStr"/>
       <c r="F66" s="29" t="n">
         <v>0</v>
       </c>
@@ -7968,10 +7968,10 @@
       <c r="C67" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D67" s="29" t="inlineStr"/>
-      <c r="E67" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D67" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="29" t="inlineStr"/>
       <c r="F67" s="29" t="n">
         <v>0</v>
       </c>
@@ -7988,10 +7988,10 @@
       <c r="C68" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D68" s="29" t="inlineStr"/>
-      <c r="E68" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D68" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="29" t="inlineStr"/>
       <c r="F68" s="29" t="n">
         <v>0</v>
       </c>
@@ -8007,10 +8007,10 @@
       <c r="C69" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D69" s="29" t="inlineStr"/>
-      <c r="E69" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D69" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="29" t="inlineStr"/>
       <c r="F69" s="29" t="n">
         <v>0</v>
       </c>
@@ -8026,10 +8026,10 @@
       <c r="C70" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D70" s="29" t="inlineStr"/>
-      <c r="E70" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D70" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="29" t="inlineStr"/>
       <c r="F70" s="29" t="n">
         <v>0</v>
       </c>
@@ -8045,10 +8045,10 @@
       <c r="C71" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D71" s="29" t="inlineStr"/>
-      <c r="E71" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D71" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="29" t="inlineStr"/>
       <c r="F71" s="29" t="n">
         <v>0</v>
       </c>
@@ -8064,10 +8064,10 @@
       <c r="C72" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D72" s="29" t="inlineStr"/>
-      <c r="E72" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D72" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="29" t="inlineStr"/>
       <c r="F72" s="29" t="n">
         <v>0</v>
       </c>
@@ -8083,10 +8083,10 @@
       <c r="C73" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D73" s="29" t="inlineStr"/>
-      <c r="E73" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D73" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" s="29" t="inlineStr"/>
       <c r="F73" s="29" t="n">
         <v>0</v>
       </c>
@@ -8102,10 +8102,10 @@
       <c r="C74" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="D74" s="29" t="inlineStr"/>
-      <c r="E74" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="D74" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" s="29" t="inlineStr"/>
       <c r="F74" s="29" t="n">
         <v>0</v>
       </c>
@@ -8440,7 +8440,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8519,10 +8519,10 @@
         <v>458772</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>580000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1.2642</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>580000</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>313982.45</v>
@@ -8541,10 +8541,10 @@
         <v>456480</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>580000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1.2706</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>580000</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>106247.33</v>
@@ -8563,10 +8563,10 @@
         <v>481667</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>475000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>0.9862000000000001</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>475000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>129497.51</v>
@@ -8585,10 +8585,10 @@
         <v>511493</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>630000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1.2317</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>630000</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>123271.02</v>
@@ -8607,10 +8607,10 @@
         <v>517785</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>630000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1.2167</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>630000</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>114769.64</v>
@@ -8629,10 +8629,10 @@
         <v>514102</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>630000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1.2254</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>630000</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>92959.36</v>
@@ -8651,10 +8651,10 @@
         <v>392673</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>470000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1.1969</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>470000</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>90241.38</v>
@@ -8673,10 +8673,10 @@
         <v>351687</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>455000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1.2938</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>455000</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>30446.25</v>
@@ -8695,10 +8695,10 @@
         <v>357222</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>460000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1.2877</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>460000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>37306.39</v>
@@ -8717,10 +8717,10 @@
         <v>388169</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1.1593</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>450000</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>41164.22</v>
@@ -8739,10 +8739,10 @@
         <v>418889</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>506000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.208</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>506000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>56875</v>
@@ -8761,10 +8761,10 @@
         <v>408699</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>518000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.2674</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>518000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>34939</v>
@@ -8783,10 +8783,10 @@
         <v>400367</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>487477</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1.2176</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>487477</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>8450</v>
@@ -8805,10 +8805,10 @@
         <v>446218</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>530634</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1.1892</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>530634</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>7586</v>
@@ -8827,10 +8827,10 @@
         <v>454928</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>562564</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.2366</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>562564</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>4404</v>
@@ -8849,10 +8849,10 @@
         <v>486199</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>518026</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.0655</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>518026</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>8760</v>
@@ -8871,10 +8871,10 @@
         <v>500283</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>505366</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.0102</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>505366</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>5178</v>
@@ -8893,10 +8893,10 @@
         <v>521894</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>551746</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.0572</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>551746</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>1881</v>
@@ -8915,10 +8915,10 @@
         <v>557500</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.0762</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>600000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>646</v>
@@ -8937,10 +8937,10 @@
         <v>604290</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>620000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.026</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>620000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>546</v>
@@ -8959,10 +8959,10 @@
         <v>625968</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.9585</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>600000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>41</v>
@@ -8981,10 +8981,10 @@
         <v>655724</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>650000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.9913</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>650000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>10636</v>
@@ -9003,10 +9003,10 @@
         <v>638680</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>535000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>0.8377</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>535000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>14396</v>
@@ -9025,10 +9025,10 @@
         <v>622214</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>548000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>0.8807</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>548000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>7411.87</v>
@@ -9047,10 +9047,10 @@
         <v>618110</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>560000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>0.906</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>560000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>8121</v>
@@ -9069,10 +9069,10 @@
         <v>658716</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>625000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>0.9488</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>625000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>21075</v>
@@ -9091,10 +9091,10 @@
         <v>719650</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>720000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1.0005</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>720000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1411</v>
@@ -9113,10 +9113,10 @@
         <v>778315</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>732000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.9405</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>732000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>193</v>
@@ -9135,10 +9135,10 @@
         <v>741766</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>730000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.9841</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>730000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>513</v>
@@ -9157,10 +9157,10 @@
         <v>756179</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>650000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.8596</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>650000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -9179,10 +9179,10 @@
         <v>780420</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>740000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.9482</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>740000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -9201,10 +9201,10 @@
         <v>827538</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>770000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.9305</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>770000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -9223,10 +9223,10 @@
         <v>874393</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>855000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.9778</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>855000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>877976</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>860000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.9795</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>860000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>40</v>
@@ -9267,10 +9267,10 @@
         <v>796000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>683000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.858</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>683000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>40</v>
@@ -9289,10 +9289,10 @@
         <v>773066</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>777500</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1.0057</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>777500</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9311,10 +9311,10 @@
         <v>655324</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>725000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1.1063</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>725000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9333,10 +9333,10 @@
         <v>533263</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>630000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1.1814</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>630000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9355,10 +9355,10 @@
         <v>398902</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1.0028</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>400000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9377,10 +9377,10 @@
         <v>343469</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>335000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.9752999999999999</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>335000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9399,10 +9399,10 @@
         <v>334500</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>290000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.867</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>290000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>245000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>280000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1.1429</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>280000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9443,10 +9443,10 @@
         <v>200000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>235000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1.175</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>235000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9465,10 +9465,10 @@
         <v>240000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>275000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1.1458</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>275000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9487,10 +9487,10 @@
         <v>200000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>225000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1.125</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>225000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9509,10 +9509,10 @@
         <v>168000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>205000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1.2202</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>205000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9531,10 +9531,10 @@
         <v>138000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>180000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1.3043</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>180000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9553,10 +9553,10 @@
         <v>137000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>170000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1.2409</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>170000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9575,10 +9575,10 @@
         <v>140000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>172000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1.2286</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>172000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9597,10 +9597,10 @@
         <v>175000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>195000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1.1143</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>195000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9619,10 +9619,10 @@
         <v>185000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>185000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>185000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9641,10 +9641,10 @@
         <v>162000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>183000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1.1296</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>183000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9663,10 +9663,10 @@
         <v>110000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>133000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1.2091</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>133000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9685,10 +9685,10 @@
         <v>100000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>109000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1.09</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>109000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9707,10 +9707,10 @@
         <v>89800</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>111000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1.2361</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>111000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>90000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>102000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1.1333</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>102000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9751,10 +9751,10 @@
         <v>85000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>97000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1.1412</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>97000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9772,10 +9772,10 @@
         <v>83000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>89000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1.0723</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>89000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9793,10 +9793,10 @@
         <v>85000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>89000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1.0471</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>89000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9814,10 +9814,10 @@
         <v>85000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1.0588</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>90000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9835,10 +9835,10 @@
         <v>82000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>87000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1.061</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>87000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9856,10 +9856,10 @@
         <v>88000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>87400</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.9932000000000001</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>87400</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>89000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1.0112</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>90000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10216,7 +10216,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10295,10 +10295,10 @@
         <v>403482</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>530494.91</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1.3148</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>530494.91</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>1203.48</v>
@@ -10317,10 +10317,10 @@
         <v>344499</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>467933.58</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1.3583</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>467933.58</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>744.0700000000001</v>
@@ -10339,10 +10339,10 @@
         <v>313039</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>316840.4</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1.0121</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>316840.4</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>929.1</v>
@@ -10361,10 +10361,10 @@
         <v>335261</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>291132.9</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>0.8683999999999999</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>291132.9</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>909.1</v>
@@ -10383,10 +10383,10 @@
         <v>551663</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>506166.1</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>0.9175</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>506166.1</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>534.47</v>
@@ -10405,10 +10405,10 @@
         <v>819330</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>620400</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>0.7572000000000001</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>620400</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1167.93</v>
@@ -10427,10 +10427,10 @@
         <v>457051</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>418646.2</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>0.916</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>418646.2</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1113.35</v>
@@ -10449,10 +10449,10 @@
         <v>357945</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>319969</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>0.8939</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>319969</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>649.22</v>
@@ -10828,722 +10828,387 @@
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="29" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="28" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C44" s="29" t="inlineStr"/>
+      <c r="D44" s="29" t="inlineStr"/>
+      <c r="E44" s="29" t="inlineStr"/>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="29" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45" s="28" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C45" s="29" t="inlineStr"/>
+      <c r="D45" s="29" t="inlineStr"/>
+      <c r="E45" s="29" t="inlineStr"/>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
       <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C47" s="29" t="inlineStr"/>
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="28" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C48" s="29" t="inlineStr"/>
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C49" s="29" t="inlineStr"/>
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="28" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" s="28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" s="28" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="28" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="28" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="28" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="28" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="28" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" s="28" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="28" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="28" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="28" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="28" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="28" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="28" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="28" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="17" t="n"/>
-      <c r="D75" s="17" t="n"/>
-      <c r="E75" s="18" t="n"/>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="29" t="n"/>
+      <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="17" t="n"/>
-      <c r="D76" s="17" t="n"/>
-      <c r="E76" s="18" t="n"/>
+      <c r="B76" s="29" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="29" t="n"/>
+      <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
@@ -11853,7 +11518,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11932,10 +11597,10 @@
         <v>210408</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>451309.28</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2.1449</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>451309.28</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4335.25</v>
@@ -11954,10 +11619,10 @@
         <v>202203</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>404846.46</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2.0022</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>404846.46</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>3.08</v>
@@ -11976,10 +11641,10 @@
         <v>201274</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>401239</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1.9935</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>401239</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>107.55</v>
@@ -11998,10 +11663,10 @@
         <v>220719</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>457319.37</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2.072</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>457319.37</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2.22</v>
@@ -12020,10 +11685,10 @@
         <v>208838</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>435193.21</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2.0839</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>435193.21</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3.46</v>
@@ -12042,10 +11707,10 @@
         <v>239786</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>459173.19</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1.9149</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>459173.19</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>127.73</v>
@@ -12064,10 +11729,10 @@
         <v>242704</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>499425.55</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2.0578</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>499425.55</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>7.09</v>
@@ -12086,10 +11751,10 @@
         <v>225608</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>444146</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1.9687</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>444146</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>7.91</v>
@@ -12108,10 +11773,10 @@
         <v>258486</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>520964.73</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2.0154</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>520964.73</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>22.18</v>
@@ -12130,10 +11795,10 @@
         <v>239755</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>458682</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1.9131</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>458682</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>36.01</v>
@@ -12152,10 +11817,10 @@
         <v>229720</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>409733</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.7836</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>409733</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1</v>
@@ -12174,10 +11839,10 @@
         <v>239512</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>409733</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.7107</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>409733</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>5</v>
@@ -12196,10 +11861,10 @@
         <v>231299</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>400208</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1.7303</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>400208</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>3</v>
@@ -12218,10 +11883,10 @@
         <v>208389</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>322839</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1.5492</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>322839</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1</v>
@@ -12240,10 +11905,10 @@
         <v>213187</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>284640</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.3352</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>284640</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -12262,10 +11927,10 @@
         <v>226785</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>286820</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.2647</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>286820</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>4094</v>
@@ -12284,10 +11949,10 @@
         <v>200066</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>253871</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.2689</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>253871</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>26</v>
@@ -12306,10 +11971,10 @@
         <v>201009</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>210585</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.0476</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>210585</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>812</v>
@@ -12328,10 +11993,10 @@
         <v>211490</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>216937</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.0258</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>216937</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1</v>
@@ -12350,10 +12015,10 @@
         <v>181079</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>162858</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>0.8994</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>162858</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>251</v>
@@ -12372,10 +12037,10 @@
         <v>154281</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>135930</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.8811</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>135930</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -12394,10 +12059,10 @@
         <v>194981</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>186801</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.958</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>186801</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -12416,10 +12081,10 @@
         <v>211910</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>175734</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>0.8292999999999999</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>175734</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -12438,10 +12103,10 @@
         <v>184790</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>164627</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>0.8909</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>164627</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>100</v>
@@ -12460,10 +12125,10 @@
         <v>167650</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>138837</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>0.8281000000000001</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>138837</v>
       </c>
       <c r="F36" s="29" t="inlineStr"/>
       <c r="G36" s="29" t="n">
@@ -12480,10 +12145,10 @@
         <v>179880</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>137133</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>0.7624</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>137133</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -12500,10 +12165,10 @@
         <v>118890</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>118388</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>0.9957999999999999</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>118388</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -12520,10 +12185,10 @@
         <v>150400</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>142097</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.9448</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>142097</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -12540,10 +12205,10 @@
         <v>178890</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>124507</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.696</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>124507</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="n">
@@ -12560,10 +12225,10 @@
         <v>131250</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>72075</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.5491</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>72075</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -12580,10 +12245,10 @@
         <v>109750</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>60085</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.5475</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>60085</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -12593,745 +12258,399 @@
       <c r="J42" s="30" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="29" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="C43" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B43" s="28" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C43" s="29" t="inlineStr"/>
+      <c r="D43" s="29" t="inlineStr"/>
+      <c r="E43" s="29" t="inlineStr"/>
+      <c r="F43" s="29" t="inlineStr"/>
+      <c r="G43" s="29" t="inlineStr"/>
       <c r="H43" s="29" t="n"/>
       <c r="J43" s="30" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="29" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="C44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="B44" s="28" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C44" s="29" t="inlineStr"/>
+      <c r="D44" s="29" t="inlineStr"/>
+      <c r="E44" s="29" t="inlineStr"/>
+      <c r="F44" s="29" t="inlineStr"/>
+      <c r="G44" s="29" t="inlineStr"/>
       <c r="H44" s="29" t="n"/>
       <c r="J44" s="30" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
+      <c r="B45" s="28" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C45" s="29" t="inlineStr"/>
+      <c r="D45" s="29" t="inlineStr"/>
+      <c r="E45" s="29" t="inlineStr"/>
+      <c r="F45" s="29" t="inlineStr"/>
+      <c r="G45" s="29" t="inlineStr"/>
+      <c r="H45" s="29" t="n"/>
       <c r="J45" s="30" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
+      <c r="B46" s="28" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="29" t="inlineStr"/>
+      <c r="D46" s="29" t="inlineStr"/>
+      <c r="E46" s="29" t="inlineStr"/>
+      <c r="F46" s="29" t="inlineStr"/>
+      <c r="G46" s="29" t="inlineStr"/>
+      <c r="H46" s="29" t="n"/>
       <c r="J46" s="30" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
+      <c r="B47" s="28" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C47" s="29" t="inlineStr"/>
+      <c r="D47" s="29" t="inlineStr"/>
+      <c r="E47" s="29" t="inlineStr"/>
+      <c r="F47" s="29" t="inlineStr"/>
+      <c r="G47" s="29" t="inlineStr"/>
+      <c r="H47" s="29" t="n"/>
       <c r="J47" s="30" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="B48" s="28" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C48" s="29" t="inlineStr"/>
+      <c r="D48" s="29" t="inlineStr"/>
+      <c r="E48" s="29" t="inlineStr"/>
+      <c r="F48" s="29" t="inlineStr"/>
+      <c r="G48" s="29" t="inlineStr"/>
+      <c r="H48" s="29" t="n"/>
       <c r="J48" s="30" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
+      <c r="B49" s="28" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C49" s="29" t="inlineStr"/>
+      <c r="D49" s="29" t="inlineStr"/>
+      <c r="E49" s="29" t="inlineStr"/>
+      <c r="F49" s="29" t="inlineStr"/>
+      <c r="G49" s="29" t="inlineStr"/>
+      <c r="H49" s="29" t="n"/>
       <c r="J49" s="30" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
+      <c r="B50" s="28" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C50" s="29" t="inlineStr"/>
+      <c r="D50" s="29" t="inlineStr"/>
+      <c r="E50" s="29" t="inlineStr"/>
+      <c r="F50" s="29" t="inlineStr"/>
+      <c r="G50" s="29" t="inlineStr"/>
+      <c r="H50" s="29" t="n"/>
       <c r="J50" s="30" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
+      <c r="B51" s="28" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C51" s="29" t="inlineStr"/>
+      <c r="D51" s="29" t="inlineStr"/>
+      <c r="E51" s="29" t="inlineStr"/>
+      <c r="F51" s="29" t="inlineStr"/>
+      <c r="G51" s="29" t="inlineStr"/>
+      <c r="H51" s="29" t="n"/>
       <c r="J51" s="30" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
+      <c r="B52" s="28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C52" s="29" t="inlineStr"/>
+      <c r="D52" s="29" t="inlineStr"/>
+      <c r="E52" s="29" t="inlineStr"/>
+      <c r="F52" s="29" t="inlineStr"/>
+      <c r="G52" s="29" t="inlineStr"/>
+      <c r="H52" s="29" t="n"/>
       <c r="J52" s="30" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
+      <c r="B53" s="28" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C53" s="29" t="inlineStr"/>
+      <c r="D53" s="29" t="inlineStr"/>
+      <c r="E53" s="29" t="inlineStr"/>
+      <c r="F53" s="29" t="inlineStr"/>
+      <c r="G53" s="29" t="inlineStr"/>
+      <c r="H53" s="29" t="n"/>
       <c r="J53" s="30" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
+      <c r="B54" s="28" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C54" s="29" t="inlineStr"/>
+      <c r="D54" s="29" t="inlineStr"/>
+      <c r="E54" s="29" t="inlineStr"/>
+      <c r="F54" s="29" t="inlineStr"/>
+      <c r="G54" s="29" t="inlineStr"/>
+      <c r="H54" s="29" t="n"/>
       <c r="J54" s="30" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
+      <c r="B55" s="28" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C55" s="29" t="inlineStr"/>
+      <c r="D55" s="29" t="inlineStr"/>
+      <c r="E55" s="29" t="inlineStr"/>
+      <c r="F55" s="29" t="inlineStr"/>
+      <c r="G55" s="29" t="inlineStr"/>
+      <c r="H55" s="29" t="n"/>
       <c r="J55" s="30" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
+      <c r="B56" s="28" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C56" s="29" t="inlineStr"/>
+      <c r="D56" s="29" t="inlineStr"/>
+      <c r="E56" s="29" t="inlineStr"/>
+      <c r="F56" s="29" t="inlineStr"/>
+      <c r="G56" s="29" t="inlineStr"/>
+      <c r="H56" s="29" t="n"/>
       <c r="J56" s="30" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
+      <c r="B57" s="28" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C57" s="29" t="inlineStr"/>
+      <c r="D57" s="29" t="inlineStr"/>
+      <c r="E57" s="29" t="inlineStr"/>
+      <c r="F57" s="29" t="inlineStr"/>
+      <c r="G57" s="29" t="inlineStr"/>
+      <c r="H57" s="29" t="n"/>
       <c r="J57" s="30" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
+      <c r="B58" s="28" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C58" s="29" t="inlineStr"/>
+      <c r="D58" s="29" t="inlineStr"/>
+      <c r="E58" s="29" t="inlineStr"/>
+      <c r="F58" s="29" t="inlineStr"/>
+      <c r="G58" s="29" t="inlineStr"/>
+      <c r="H58" s="29" t="n"/>
       <c r="J58" s="30" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
+      <c r="B59" s="28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C59" s="29" t="inlineStr"/>
+      <c r="D59" s="29" t="inlineStr"/>
+      <c r="E59" s="29" t="inlineStr"/>
+      <c r="F59" s="29" t="inlineStr"/>
+      <c r="G59" s="29" t="inlineStr"/>
+      <c r="H59" s="29" t="n"/>
       <c r="J59" s="30" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
+      <c r="B60" s="28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C60" s="29" t="inlineStr"/>
+      <c r="D60" s="29" t="inlineStr"/>
+      <c r="E60" s="29" t="inlineStr"/>
+      <c r="F60" s="29" t="inlineStr"/>
+      <c r="G60" s="29" t="inlineStr"/>
+      <c r="H60" s="29" t="n"/>
       <c r="J60" s="30" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
+      <c r="B61" s="28" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C61" s="29" t="inlineStr"/>
+      <c r="D61" s="29" t="inlineStr"/>
+      <c r="E61" s="29" t="inlineStr"/>
+      <c r="F61" s="29" t="inlineStr"/>
+      <c r="G61" s="29" t="inlineStr"/>
+      <c r="H61" s="29" t="n"/>
       <c r="J61" s="30" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
+      <c r="B62" s="28" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C62" s="29" t="inlineStr"/>
+      <c r="D62" s="29" t="inlineStr"/>
+      <c r="E62" s="29" t="inlineStr"/>
+      <c r="F62" s="29" t="inlineStr"/>
+      <c r="G62" s="29" t="inlineStr"/>
+      <c r="H62" s="29" t="n"/>
       <c r="J62" s="30" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
+      <c r="B63" s="28" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C63" s="29" t="inlineStr"/>
+      <c r="D63" s="29" t="inlineStr"/>
+      <c r="E63" s="29" t="inlineStr"/>
+      <c r="F63" s="29" t="inlineStr"/>
+      <c r="G63" s="29" t="inlineStr"/>
+      <c r="H63" s="29" t="n"/>
       <c r="J63" s="30" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" s="28" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C64" s="29" t="inlineStr"/>
+      <c r="D64" s="29" t="inlineStr"/>
+      <c r="E64" s="29" t="inlineStr"/>
+      <c r="F64" s="29" t="inlineStr"/>
+      <c r="G64" s="29" t="inlineStr"/>
+      <c r="H64" s="29" t="n"/>
       <c r="J64" s="30" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
+      <c r="B65" s="28" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="29" t="inlineStr"/>
+      <c r="D65" s="29" t="inlineStr"/>
+      <c r="E65" s="29" t="inlineStr"/>
+      <c r="F65" s="29" t="inlineStr"/>
+      <c r="G65" s="29" t="inlineStr"/>
+      <c r="H65" s="29" t="n"/>
       <c r="J65" s="30" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
+      <c r="B66" s="28" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C66" s="29" t="inlineStr"/>
+      <c r="D66" s="29" t="inlineStr"/>
+      <c r="E66" s="29" t="inlineStr"/>
+      <c r="F66" s="29" t="inlineStr"/>
+      <c r="G66" s="29" t="inlineStr"/>
+      <c r="H66" s="29" t="n"/>
       <c r="J66" s="30" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
+      <c r="B67" s="28" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C67" s="29" t="inlineStr"/>
+      <c r="D67" s="29" t="inlineStr"/>
+      <c r="E67" s="29" t="inlineStr"/>
+      <c r="F67" s="29" t="inlineStr"/>
+      <c r="G67" s="29" t="inlineStr"/>
+      <c r="H67" s="29" t="n"/>
       <c r="J67" s="30" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B68" s="28" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C68" s="29" t="inlineStr"/>
+      <c r="D68" s="29" t="inlineStr"/>
+      <c r="E68" s="29" t="inlineStr"/>
+      <c r="F68" s="29" t="inlineStr"/>
+      <c r="G68" s="29" t="inlineStr"/>
+      <c r="H68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
+      <c r="B69" s="28" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C69" s="29" t="inlineStr"/>
+      <c r="D69" s="29" t="inlineStr"/>
+      <c r="E69" s="29" t="inlineStr"/>
+      <c r="F69" s="29" t="inlineStr"/>
+      <c r="G69" s="29" t="inlineStr"/>
+      <c r="H69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
+      <c r="B70" s="28" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C70" s="29" t="inlineStr"/>
+      <c r="D70" s="29" t="inlineStr"/>
+      <c r="E70" s="29" t="inlineStr"/>
+      <c r="F70" s="29" t="inlineStr"/>
+      <c r="G70" s="29" t="inlineStr"/>
+      <c r="H70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
+      <c r="B71" s="28" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C71" s="29" t="inlineStr"/>
+      <c r="D71" s="29" t="inlineStr"/>
+      <c r="E71" s="29" t="inlineStr"/>
+      <c r="F71" s="29" t="inlineStr"/>
+      <c r="G71" s="29" t="inlineStr"/>
+      <c r="H71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
+      <c r="B72" s="28" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C72" s="29" t="inlineStr"/>
+      <c r="D72" s="29" t="inlineStr"/>
+      <c r="E72" s="29" t="inlineStr"/>
+      <c r="F72" s="29" t="inlineStr"/>
+      <c r="G72" s="29" t="inlineStr"/>
+      <c r="H72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
+      <c r="B73" s="28" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C73" s="29" t="inlineStr"/>
+      <c r="D73" s="29" t="inlineStr"/>
+      <c r="E73" s="29" t="inlineStr"/>
+      <c r="F73" s="29" t="inlineStr"/>
+      <c r="G73" s="29" t="inlineStr"/>
+      <c r="H73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
+      <c r="B74" s="28" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C74" s="29" t="inlineStr"/>
+      <c r="D74" s="29" t="inlineStr"/>
+      <c r="E74" s="29" t="inlineStr"/>
+      <c r="F74" s="29" t="inlineStr"/>
+      <c r="G74" s="29" t="inlineStr"/>
+      <c r="H74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="17" t="n"/>
-      <c r="D75" s="17" t="n"/>
-      <c r="E75" s="18" t="n"/>
+      <c r="B75" s="29" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="29" t="n"/>
+      <c r="E75" s="29" t="n"/>
+      <c r="F75" s="29" t="n"/>
+      <c r="G75" s="29" t="n"/>
+      <c r="H75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="17" t="n"/>
-      <c r="D76" s="17" t="n"/>
-      <c r="E76" s="18" t="n"/>
+      <c r="B76" s="29" t="n"/>
+      <c r="C76" s="29" t="n"/>
+      <c r="D76" s="29" t="n"/>
+      <c r="E76" s="29" t="n"/>
+      <c r="F76" s="29" t="n"/>
+      <c r="G76" s="29" t="n"/>
+      <c r="H76" s="29" t="n"/>
     </row>
     <row r="77">
       <c r="C77" s="17" t="n"/>
